--- a/ancillary files/custom colours.xlsx
+++ b/ancillary files/custom colours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://libertyglobal0-my.sharepoint.com/personal/jphilbrick_contractor_libertyglobal_com/Documents/External to Work/Programming/site v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://libertyglobal0-my.sharepoint.com/personal/jphilbrick_contractor_libertyglobal_com/Documents/External to Work/[03] Programming/[02] Web dev/personal-website-main/personal-website-main/ancillary files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D984B9-BA7B-4BFE-AD92-4B9B889998B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{92D984B9-BA7B-4BFE-AD92-4B9B889998B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1224D1C2-E680-4894-9F98-840BF9A6F994}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C068E3D-09E2-4B28-A20F-1C2ECB61977A}"/>
+    <workbookView xWindow="1584" yWindow="1164" windowWidth="23040" windowHeight="12204" xr2:uid="{7C068E3D-09E2-4B28-A20F-1C2ECB61977A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>warm-yellow</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>cool-blue-black</t>
+  </si>
+  <si>
+    <t>warm-yellow-pale</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF252629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E5BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -173,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,6 +191,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF7E5BC"/>
       <color rgb="FF252629"/>
       <color rgb="FF314759"/>
       <color rgb="FF3B799F"/>
@@ -190,7 +201,6 @@
       <color rgb="FF8C2C16"/>
       <color rgb="FFBF4215"/>
       <color rgb="FFD97823"/>
-      <color rgb="FFF2C84B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -501,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F070346D-9EC3-4C69-A312-4A09D8784FFF}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,66 +523,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="11"/>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>